--- a/public/Template/Subject-sample.xlsx
+++ b/public/Template/Subject-sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96F7BCFE-7804-AD4F-A9CF-0D9289A45297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BA94D1-65D4-C047-94E2-76C34D7B2192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{BCAF19A5-DB9C-684A-B99B-F7297BD599B2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -56,24 +56,6 @@
     <t>RoomCodes</t>
   </si>
   <si>
-    <t>THCS</t>
-  </si>
-  <si>
-    <t>THPT</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>…..</t>
-  </si>
-  <si>
     <t>IsParentSubject</t>
   </si>
   <si>
@@ -296,13 +278,13 @@
     <t>TiH</t>
   </si>
   <si>
-    <t>K1,K2,K3,K4,K5</t>
-  </si>
-  <si>
-    <t>K1,K2,K3</t>
-  </si>
-  <si>
-    <t>K4,K5</t>
+    <t>Khối 1,Khối 2,Khối 3</t>
+  </si>
+  <si>
+    <t>Khối 1,Khối 2,Khối 3,Khối 4,Khối 5</t>
+  </si>
+  <si>
+    <t>Khối 4,Khối 5</t>
   </si>
 </sst>
 </file>
@@ -690,7 +672,7 @@
   <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,10 +702,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -734,80 +716,53 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -815,325 +770,325 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AN10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -1141,16 +1096,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -1158,16 +1113,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1175,16 +1130,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1192,96 +1147,96 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1289,16 +1244,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1306,16 +1261,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1323,16 +1278,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1340,16 +1295,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1357,16 +1312,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1374,16 +1329,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1391,16 +1346,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1408,16 +1363,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
